--- a/字段名.xlsx
+++ b/字段名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7680"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>富氧率</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>炉腹煤气量</t>
-  </si>
-  <si>
-    <t>炉腹煤气指数</t>
   </si>
   <si>
     <t>理论燃烧温度</t>
@@ -126,6 +123,38 @@
   </si>
   <si>
     <t>上小时实际喷煤量</t>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉腹煤气指数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,164 +534,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>

--- a/字段名.xlsx
+++ b/字段名.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>富氧率</t>
   </si>
@@ -86,74 +86,75 @@
     <t>冷风压力</t>
   </si>
   <si>
+    <t>热风压力</t>
+  </si>
+  <si>
+    <t>实际风速</t>
+  </si>
+  <si>
+    <t>热风温度</t>
+  </si>
+  <si>
+    <t>顶温东北</t>
+  </si>
+  <si>
+    <t>顶温西南</t>
+  </si>
+  <si>
+    <t>顶温西北</t>
+  </si>
+  <si>
+    <t>顶温东南</t>
+  </si>
+  <si>
+    <t>阻力系数</t>
+  </si>
+  <si>
+    <t>鼓风湿度</t>
+  </si>
+  <si>
+    <t>设定喷煤量</t>
+  </si>
+  <si>
+    <t>本小时实际喷煤量</t>
+  </si>
+  <si>
+    <t>上小时实际喷煤量</t>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉腹煤气指数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>全压差</t>
-  </si>
-  <si>
-    <t>热风压力</t>
-  </si>
-  <si>
-    <t>实际风速</t>
-  </si>
-  <si>
-    <t>热风温度</t>
-  </si>
-  <si>
-    <t>顶温东北</t>
-  </si>
-  <si>
-    <t>顶温西南</t>
-  </si>
-  <si>
-    <t>顶温西北</t>
-  </si>
-  <si>
-    <t>顶温东南</t>
-  </si>
-  <si>
-    <t>阻力系数</t>
-  </si>
-  <si>
-    <t>鼓风湿度</t>
-  </si>
-  <si>
-    <t>设定喷煤量</t>
-  </si>
-  <si>
-    <t>本小时实际喷煤量</t>
-  </si>
-  <si>
-    <t>上小时实际喷煤量</t>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉腹煤气指数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +538,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -558,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -566,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -574,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -582,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -590,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -598,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -606,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -614,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -622,15 +623,15 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -638,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -646,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -654,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -662,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -670,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -678,99 +679,105 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/字段名.xlsx
+++ b/字段名.xlsx
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,7 +546,7 @@
     <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,7 +562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -570,7 +570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -578,7 +578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -586,7 +586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -594,7 +594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,15 +602,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -618,7 +621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -626,7 +629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -634,7 +637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -642,15 +645,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,7 +664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -666,7 +672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,7 +688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -690,17 +696,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -708,15 +714,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -724,7 +733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -732,7 +741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -740,7 +749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -748,7 +757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -756,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -764,7 +773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -772,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
